--- a/timezone.xlsx
+++ b/timezone.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="16635" windowHeight="11145"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="177">
   <si>
     <t>coutry</t>
   </si>
@@ -24,42 +35,84 @@
     <t>timezone</t>
   </si>
   <si>
+    <t>zonename_openwrt</t>
+  </si>
+  <si>
+    <t>timezone_openwrt</t>
+  </si>
+  <si>
     <t>trans0280</t>
   </si>
   <si>
     <t>GMT-12:00</t>
   </si>
   <si>
+    <t>Etc/GMT-12</t>
+  </si>
+  <si>
+    <t>&lt;+12&gt;-12</t>
+  </si>
+  <si>
     <t>trans0281</t>
   </si>
   <si>
     <t>GMT-11:00</t>
   </si>
   <si>
+    <t>Etc/GMT-11</t>
+  </si>
+  <si>
+    <t>&lt;+11&gt;-11</t>
+  </si>
+  <si>
     <t>trans0282</t>
   </si>
   <si>
     <t>GMT-10:00</t>
   </si>
   <si>
+    <t>Etc/GMT-10</t>
+  </si>
+  <si>
+    <t>&lt;+10&gt;-10</t>
+  </si>
+  <si>
     <t>trans0283</t>
   </si>
   <si>
     <t>GMT-09:00</t>
   </si>
   <si>
+    <t>Etc/GMT-9</t>
+  </si>
+  <si>
+    <t>&lt;+09&gt;-9</t>
+  </si>
+  <si>
     <t>trans0284</t>
   </si>
   <si>
     <t>GMT-08:00</t>
   </si>
   <si>
+    <t>Etc/GMT-8</t>
+  </si>
+  <si>
+    <t>&lt;+08&gt;-8</t>
+  </si>
+  <si>
     <t>trans0285</t>
   </si>
   <si>
     <t>GMT-07:00</t>
   </si>
   <si>
+    <t>Etc/GMT-7</t>
+  </si>
+  <si>
+    <t>&lt;+07&gt;-7</t>
+  </si>
+  <si>
     <t>trans0286</t>
   </si>
   <si>
@@ -72,6 +125,12 @@
     <t>GMT-06:00</t>
   </si>
   <si>
+    <t>Etc/GMT-6</t>
+  </si>
+  <si>
+    <t>&lt;+06&gt;-6</t>
+  </si>
+  <si>
     <t>trans0289</t>
   </si>
   <si>
@@ -87,6 +146,12 @@
     <t>GMT-05:00</t>
   </si>
   <si>
+    <t>Etc/GMT-5</t>
+  </si>
+  <si>
+    <t>&lt;+05&gt;-5</t>
+  </si>
+  <si>
     <t>trans0293</t>
   </si>
   <si>
@@ -99,6 +164,12 @@
     <t>GMT-04:00</t>
   </si>
   <si>
+    <t>Etc/GMT-4</t>
+  </si>
+  <si>
+    <t>&lt;+04&gt;-4</t>
+  </si>
+  <si>
     <t>trans0296</t>
   </si>
   <si>
@@ -111,12 +182,24 @@
     <t>GMT-03:30</t>
   </si>
   <si>
+    <t>America/St Johns</t>
+  </si>
+  <si>
+    <t>NST3:30NDT,M3.2.0,M11.1.0</t>
+  </si>
+  <si>
     <t>trans0299</t>
   </si>
   <si>
     <t>GMT-03:00</t>
   </si>
   <si>
+    <t>Etc/GMT-3</t>
+  </si>
+  <si>
+    <t>&lt;+03&gt;-3</t>
+  </si>
+  <si>
     <t>trans0300</t>
   </si>
   <si>
@@ -129,12 +212,24 @@
     <t>GMT-02:00</t>
   </si>
   <si>
+    <t>Etc/GMT-2</t>
+  </si>
+  <si>
+    <t>&lt;+02&gt;-2</t>
+  </si>
+  <si>
     <t>trans0303</t>
   </si>
   <si>
     <t>GMT-01:00</t>
   </si>
   <si>
+    <t>Etc/GMT-1</t>
+  </si>
+  <si>
+    <t>&lt;+01&gt;-1</t>
+  </si>
+  <si>
     <t>trans0304</t>
   </si>
   <si>
@@ -144,6 +239,12 @@
     <t>GMT-00:00</t>
   </si>
   <si>
+    <t>Etc/GMT</t>
+  </si>
+  <si>
+    <t>GMT0</t>
+  </si>
+  <si>
     <t>trans0306</t>
   </si>
   <si>
@@ -153,6 +254,12 @@
     <t>GMT+01:00</t>
   </si>
   <si>
+    <t>Etc/GMT+1</t>
+  </si>
+  <si>
+    <t>&lt;-01&gt;1</t>
+  </si>
+  <si>
     <t>trans0308</t>
   </si>
   <si>
@@ -171,6 +278,12 @@
     <t>GMT+02:00</t>
   </si>
   <si>
+    <t>Etc/GMT+2</t>
+  </si>
+  <si>
+    <t>&lt;-02&gt;2</t>
+  </si>
+  <si>
     <t>trans0313</t>
   </si>
   <si>
@@ -192,6 +305,12 @@
     <t>GMT+03:00</t>
   </si>
   <si>
+    <t>Etc/GMT+3</t>
+  </si>
+  <si>
+    <t>&lt;-03&gt;3</t>
+  </si>
+  <si>
     <t>trans0319</t>
   </si>
   <si>
@@ -207,12 +326,24 @@
     <t>GMT+03:30</t>
   </si>
   <si>
+    <t>Asia/Tehran</t>
+  </si>
+  <si>
+    <t>&lt;+0330&gt;-3:30&lt;+0430&gt;,J79/24,J263/24</t>
+  </si>
+  <si>
     <t>trans0323</t>
   </si>
   <si>
     <t>GMT+04:00</t>
   </si>
   <si>
+    <t>Etc/GMT+4</t>
+  </si>
+  <si>
+    <t>&lt;-04&gt;4</t>
+  </si>
+  <si>
     <t>trans0324</t>
   </si>
   <si>
@@ -222,12 +353,24 @@
     <t>GMT+04:30</t>
   </si>
   <si>
+    <t>Asia/Kabul</t>
+  </si>
+  <si>
+    <t>&lt;+0430&gt;-4:30</t>
+  </si>
+  <si>
     <t>trans0326</t>
   </si>
   <si>
     <t>GMT+05:00</t>
   </si>
   <si>
+    <t>Etc/GMT+5</t>
+  </si>
+  <si>
+    <t>&lt;-05&gt;5</t>
+  </si>
+  <si>
     <t>trans0327</t>
   </si>
   <si>
@@ -237,18 +380,36 @@
     <t>GMT+05:30</t>
   </si>
   <si>
+    <t>Asia/Kolkata</t>
+  </si>
+  <si>
+    <t>IST-5:30</t>
+  </si>
+  <si>
     <t>trans0329</t>
   </si>
   <si>
     <t>GMT+05:45</t>
   </si>
   <si>
+    <t>Asia/Kathmandu</t>
+  </si>
+  <si>
+    <t>&lt;+0545&gt;-5:45</t>
+  </si>
+  <si>
     <t>trans0330</t>
   </si>
   <si>
     <t>GMT+06:00</t>
   </si>
   <si>
+    <t>Etc/GMT+6</t>
+  </si>
+  <si>
+    <t>&lt;-06&gt;6</t>
+  </si>
+  <si>
     <t>trans0331</t>
   </si>
   <si>
@@ -261,12 +422,24 @@
     <t>GMT+06:30</t>
   </si>
   <si>
+    <t>Asia/Yangon</t>
+  </si>
+  <si>
+    <t>&lt;+0630&gt;-6:30</t>
+  </si>
+  <si>
     <t>trans0334</t>
   </si>
   <si>
     <t>GMT+07:00</t>
   </si>
   <si>
+    <t>Etc/GMT+7</t>
+  </si>
+  <si>
+    <t>&lt;-07&gt;7</t>
+  </si>
+  <si>
     <t>trans0335</t>
   </si>
   <si>
@@ -276,6 +449,12 @@
     <t>GMT+08:00</t>
   </si>
   <si>
+    <t>Etc/GMT+8</t>
+  </si>
+  <si>
+    <t>&lt;-08&gt;8</t>
+  </si>
+  <si>
     <t>trans0337</t>
   </si>
   <si>
@@ -294,6 +473,12 @@
     <t>GMT+09:00</t>
   </si>
   <si>
+    <t>Etc/GMT+9</t>
+  </si>
+  <si>
+    <t>&lt;-09&gt;9</t>
+  </si>
+  <si>
     <t>trans0342</t>
   </si>
   <si>
@@ -306,15 +491,33 @@
     <t>GMT+09:30</t>
   </si>
   <si>
+    <t>Australia/Adelaide</t>
+  </si>
+  <si>
+    <t>ACST-9:30ACDT,M10.1.0,M4.1.0/3</t>
+  </si>
+  <si>
     <t>trans0345</t>
   </si>
   <si>
+    <t>Australia/Darwin</t>
+  </si>
+  <si>
+    <t>ACST-9:30</t>
+  </si>
+  <si>
     <t>trans0346</t>
   </si>
   <si>
     <t>GMT+10:00</t>
   </si>
   <si>
+    <t>Etc/GMT+10</t>
+  </si>
+  <si>
+    <t>&lt;-10&gt;10</t>
+  </si>
+  <si>
     <t>trans0347</t>
   </si>
   <si>
@@ -333,6 +536,12 @@
     <t>GMT+11:00</t>
   </si>
   <si>
+    <t>Etc/GMT+11</t>
+  </si>
+  <si>
+    <t>&lt;-11&gt;11</t>
+  </si>
+  <si>
     <t>trans0352</t>
   </si>
   <si>
@@ -340,6 +549,12 @@
   </si>
   <si>
     <t>GMT+12:00</t>
+  </si>
+  <si>
+    <t>Etc/GMT+12</t>
+  </si>
+  <si>
+    <t>&lt;-12&gt;12</t>
   </si>
   <si>
     <t>trans0354</t>
@@ -348,39 +563,379 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF4DA621"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <color rgb="FF175CEB"/>
-      <sz val="10"/>
-      <u/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -388,37 +943,539 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,7 +1517,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="等线 Light" panose="020F0302020204030204"/>
+        <a:latin typeface="等线 Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -493,26 +1550,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="等线" panose="020F0502020204030204"/>
+        <a:latin typeface="等线"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游明朝"/>
@@ -545,23 +1585,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,7 +1592,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -593,9 +1616,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -619,7 +1642,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -654,7 +1677,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -672,7 +1695,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -697,794 +1720,1098 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D76"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.0742" customWidth="true"/>
-    <col min="2" max="2" width="25.7617" customWidth="true"/>
-    <col min="3" max="3" width="26.1641" customWidth="true"/>
-    <col min="4" max="4" width="22.2539" customWidth="true"/>
+    <col min="1" max="1" width="18.0761904761905" customWidth="1"/>
+    <col min="2" max="2" width="32.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="34.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="51.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s"/>
-      <c r="D2" s="5" t="s"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s"/>
-      <c r="D3" s="5" t="s"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s"/>
-      <c r="D4" s="5" t="s"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s"/>
-      <c r="D5" s="5" t="s"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="4" ht="14.25" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s"/>
-      <c r="D6" s="5" t="s"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s"/>
-      <c r="D7" s="5" t="s"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s"/>
-      <c r="D8" s="5" t="s"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s"/>
-      <c r="D9" s="5" t="s"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s"/>
-      <c r="D10" s="5" t="s"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s"/>
-      <c r="D11" s="5" t="s"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s"/>
-      <c r="D12" s="5" t="s"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s"/>
-      <c r="D13" s="5" t="s"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s"/>
-      <c r="D14" s="5" t="s"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s"/>
-      <c r="D15" s="5" t="s"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s"/>
-      <c r="D16" s="5" t="s"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4" t="s"/>
-      <c r="D17" s="5" t="s"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4" t="s"/>
-      <c r="D18" s="5" t="s"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="9" ht="14.25" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4" t="s"/>
-      <c r="D19" s="5" t="s"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="10" ht="14.25" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="4" t="s"/>
-      <c r="D20" s="5" t="s"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="4" t="s"/>
-      <c r="D21" s="5" t="s"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
+    </row>
+    <row r="11" ht="14.25" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="4" t="s"/>
-      <c r="D22" s="5" t="s"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="12" ht="14.25" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="4" t="s"/>
-      <c r="D23" s="5" t="s"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="13" ht="14.25" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="4" t="s"/>
-      <c r="D24" s="5" t="s"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="4" t="s"/>
-      <c r="D25" s="5" t="s"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="15" ht="14.25" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="4" t="s"/>
-      <c r="D26" s="5" t="s"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="4" t="s"/>
-      <c r="D27" s="5" t="s"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="4" t="s"/>
-      <c r="D28" s="5" t="s"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="4" t="s"/>
-      <c r="D29" s="5" t="s"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
+      <c r="D17" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="3" t="s">
+    </row>
+    <row r="18" ht="14.25" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="4" t="s"/>
-      <c r="D30" s="5" t="s"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="4" t="s"/>
-      <c r="D31" s="5" t="s"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="4" t="s"/>
-      <c r="D32" s="5" t="s"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="4" t="s"/>
-      <c r="D33" s="5" t="s"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="4" t="s"/>
-      <c r="D34" s="5" t="s"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
+      <c r="D20" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="4" t="s"/>
-      <c r="D35" s="5" t="s"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
+    </row>
+    <row r="21" ht="14.25" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="4" t="s"/>
-      <c r="D36" s="5" t="s"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="4" t="s"/>
-      <c r="D37" s="5" t="s"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="4" t="s"/>
-      <c r="D38" s="5" t="s"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
+      <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="4" t="s"/>
-      <c r="D39" s="5" t="s"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
+    </row>
+    <row r="22" ht="14.25" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:4">
+      <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="4" t="s"/>
-      <c r="D40" s="5" t="s"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="4" t="s"/>
-      <c r="D41" s="5" t="s"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="4" t="s"/>
-      <c r="D42" s="5" t="s"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="4" t="s"/>
-      <c r="D43" s="5" t="s"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
+      <c r="D24" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="3" t="s">
+    </row>
+    <row r="25" ht="14.25" spans="1:4">
+      <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="4" t="s"/>
-      <c r="D44" s="5" t="s"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C25" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="4" t="s"/>
-      <c r="D45" s="5" t="s"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3" t="s">
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="3" t="s">
+    </row>
+    <row r="26" ht="14.25" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="4" t="s"/>
-      <c r="D46" s="5" t="s"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:4">
+      <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="4" t="s"/>
-      <c r="D47" s="5" t="s"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="4" t="s"/>
-      <c r="D48" s="5" t="s"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="3" t="s">
+    </row>
+    <row r="28" ht="14.25" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="4" t="s"/>
-      <c r="D49" s="5" t="s"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="4" t="s"/>
-      <c r="D50" s="5" t="s"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C29" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="4" t="s"/>
-      <c r="D51" s="5" t="s"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3" t="s">
+      <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="3" t="s">
+    </row>
+    <row r="30" ht="14.25" spans="1:4">
+      <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="4" t="s"/>
-      <c r="D52" s="5" t="s"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3" t="s">
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:4">
+      <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="4" t="s"/>
-      <c r="D53" s="5" t="s"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:4">
+      <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="4" t="s"/>
-      <c r="D54" s="5" t="s"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
+      <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:4">
+      <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:4">
+      <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="4" t="s"/>
-      <c r="D55" s="5" t="s"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="4" t="s"/>
-      <c r="D56" s="5" t="s"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="3" t="s">
+      <c r="D34" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="3" t="s">
+    </row>
+    <row r="35" ht="14.25" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="4" t="s"/>
-      <c r="D57" s="5" t="s"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:4">
+      <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="4" t="s"/>
-      <c r="D58" s="5" t="s"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="3" t="s">
+      <c r="B36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:4">
+      <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="4" t="s"/>
-      <c r="D59" s="5" t="s"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="3" t="s">
+      <c r="B37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:4">
+      <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="4" t="s"/>
-      <c r="D60" s="5" t="s"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="3" t="s">
+      <c r="B38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:4">
+      <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="4" t="s"/>
-      <c r="D61" s="5" t="s"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="3" t="s">
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:4">
+      <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="4" t="s"/>
-      <c r="D62" s="5" t="s"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C40" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="4" t="s"/>
-      <c r="D63" s="5" t="s"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="3" t="s">
+      <c r="D40" t="s">
         <v>93</v>
       </c>
-      <c r="B64" s="3" t="s">
+    </row>
+    <row r="41" ht="14.25" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="4" t="s"/>
-      <c r="D64" s="5" t="s"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="4" t="s"/>
-      <c r="D65" s="5" t="s"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="3" t="s">
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:4">
+      <c r="A43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C66" s="4" t="s"/>
-      <c r="D66" s="5" t="s"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="3" t="s">
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:4">
+      <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="4" t="s"/>
-      <c r="D67" s="5" t="s"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C44" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="4" t="s"/>
-      <c r="D68" s="5" t="s"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="3" t="s">
+      <c r="D44" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="4" t="s"/>
-      <c r="D69" s="5" t="s"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="3" t="s">
+    </row>
+    <row r="45" ht="14.25" spans="1:4">
+      <c r="A45" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C70" s="4" t="s"/>
-      <c r="D70" s="5" t="s"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="4" t="s"/>
-      <c r="D71" s="5" t="s"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="3" t="s">
+      <c r="C45" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="4" t="s"/>
-      <c r="D72" s="5" t="s"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="3" t="s">
+      <c r="D45" t="s">
         <v>104</v>
       </c>
-      <c r="B73" s="3" t="s">
+    </row>
+    <row r="46" ht="14.25" spans="1:4">
+      <c r="A46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="4" t="s"/>
-      <c r="D73" s="5" t="s"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="3" t="s">
+      <c r="B46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:4">
+      <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="4" t="s"/>
-      <c r="D74" s="5" t="s"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C47" t="s">
         <v>108</v>
       </c>
-      <c r="C75" s="4" t="s"/>
-      <c r="D75" s="5" t="s"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="3" t="s">
+      <c r="D47" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="4" t="s"/>
-      <c r="D76" s="5" t="s"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>